--- a/data/trans_camb/P1423-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Provincia-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>4,16</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>-5,22</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>3,26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,03</t>
         </is>
       </c>
     </row>
@@ -639,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 5,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 1,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-4,07; 7,45</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>-1,83; 9,89</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>-9,16; -1,08</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 5,38</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0,19; 6,8</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; -0,64</t>
         </is>
       </c>
     </row>
@@ -677,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>20,4%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>40,49%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>-50,76%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>51,1%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-47,52%</t>
         </is>
       </c>
     </row>
@@ -715,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,86; 402,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,16; 118,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-30,25; 92,58</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>-14,53; 132,09</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>-70,74; -13,3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-16,4; 108,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>1,03; 130,96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-66,25; -9,14</t>
         </is>
       </c>
     </row>
@@ -767,22 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,38</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,68</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4,53</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>2,39</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,7</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,77</t>
         </is>
       </c>
     </row>
@@ -805,22 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>0,48; 5,91</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-0,42; 7,35</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>-3,13; 4,33</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 7,95</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>0,15; 5,06</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>-1,28; 3,15</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 6,01</t>
         </is>
       </c>
     </row>
@@ -843,22 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>126,85%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>37,48%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>7,54%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>50,17%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>41,32%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>12,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>65,25%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>4,92; 345,43</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-4,35; 99,13</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>-27,75; 58,85</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 113,03</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>1,41; 111,55</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>-19,2; 67,02</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23,81; 126,42</t>
         </is>
       </c>
     </row>
@@ -923,22 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>7,51</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>4,8</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>1,27</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8,58</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>4,43</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>0,73</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,14</t>
         </is>
       </c>
     </row>
@@ -961,22 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>4,44; 10,78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>0,53; 9,19</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>-2,77; 4,97</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 12,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>1,9; 6,96</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>-1,47; 2,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 10,58</t>
         </is>
       </c>
     </row>
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>650,12%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>72,86%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>19,21%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>130,22%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>112,42%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>18,43%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>206,52%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>81,58; 3115,25</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>4,13; 189,5</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>-34,17; 96,45</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>45,08; 266,52</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>35,92; 241,87</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>-31,15; 101,61</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>101,34; 356,09</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,22 +1290,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>9,0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>2,18</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>5,01</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>1,5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,71</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,71</t>
+          <t>-1,73; 3,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,22 +1343,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 11,87</t>
+          <t>2,36; 9,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>5,18; 13,15</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>-1,07; 5,46</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 6,79</t>
-        </is>
-      </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
+          <t>-0,72; 6,95</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 7,46</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>-0,51; 3,59</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 7,2</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>69,69%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,22 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>189,69%</t>
+          <t>273,72%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>200,3%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>48,45%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>150,37%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
+          <t>80,48%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>143,84%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>44,9%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>141,55%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 392,28</t>
+          <t>-60,54; 349,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,22 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>78,92; 394,39</t>
+          <t>44,81; 788,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>79,17; 450,33</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>-23,58; 172,08</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>62,52; 284,19</t>
-        </is>
-      </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
+          <t>-11,16; 208,59</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>53,83; 301,93</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>-13,31; 150,68</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>51,93; 307,2</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1506,37 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>10,0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>2,46</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,07</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>5,83</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>2,27</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1559,37 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>-4,83; 0,84</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>2,85; 16,97</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>-3,53; 8,39</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-9,88; 0,36</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>1,76; 9,67</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>-2,01; 5,62</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 0,2</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1612,37 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>-51,98%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>97,17%</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>23,92%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-39,56%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>84,21%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>32,72%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-36,99%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
+          <t>-88,89; 64,59</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>20,84; 244,89</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>-27,7; 115,62</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-71,68; 3,32</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>18,37; 186,57</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>-22,07; 110,85</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-64,18; 6,18</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1722,37 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>7,61</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>7,08</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9,49</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>6,03</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>4,52</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>9,39</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1775,37 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
+          <t>6,46; 12,84</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
           <t>2,48; 12,45</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>2,06; 12,01</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 13,28</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>3,2; 8,81</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr">
         <is>
           <t>1,89; 7,39</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>6,8; 12,02</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1828,37 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>1344,22%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>135,9%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>126,32%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>169,39%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>189,37%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>141,82%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>294,69%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
+          <t>280,63; —</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
           <t>26,59; 321,85</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>22,95; 316,58</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>56,56; 349,22</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>66,36; 389,49</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>42,28; 319,03</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>148,59; 568,74</t>
         </is>
       </c>
     </row>
@@ -1547,22 +1938,37 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
           <t>1,04</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>0,48</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>1,63</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>-0,09</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1991,37 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
+          <t>1,91; 7,2</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
           <t>-1,95; 4,06</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>-2,68; 3,44</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 8,67</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>-0,38; 3,42</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
+      <c r="J29" s="2" t="inlineStr">
         <is>
           <t>-1,89; 1,79</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 6,54</t>
         </is>
       </c>
     </row>
@@ -1623,22 +2044,37 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>143,79%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
           <t>13,01%</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>6,03%</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>44,56%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>29,43%</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>-1,69%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>75,95%</t>
         </is>
       </c>
     </row>
@@ -1661,22 +2097,37 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
+          <t>45,68; 334,32</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
           <t>-21,86; 62,26</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>-28,54; 49,99</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-40,58; 118,94</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>-5,87; 72,32</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>-30,3; 38,24</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 133,59</t>
         </is>
       </c>
     </row>
@@ -1703,22 +2154,37 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
           <t>1,06</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>4,13</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>-0,82</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
+      <c r="J32" s="2" t="inlineStr">
         <is>
           <t>1,33</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -1741,22 +2207,37 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
+          <t>-5,65; 0,31</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
           <t>-1,78; 3,75</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>1,04; 7,15</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 7,05</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>-2,66; 0,9</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr">
+      <c r="J33" s="2" t="inlineStr">
         <is>
           <t>-0,51; 3,34</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 2,66</t>
         </is>
       </c>
     </row>
@@ -1779,22 +2260,37 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
+          <t>-35,14%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
           <t>14,4%</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>55,92%</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>57,99%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>-12,37%</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
+      <c r="J34" s="2" t="inlineStr">
         <is>
           <t>20,01%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
         </is>
       </c>
     </row>
@@ -1817,22 +2313,37 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
+          <t>-74,77; 4,37</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
           <t>-20,29; 60,79</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>9,6; 121,56</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 118,92</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-33,99; 16,48</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-6,7; 57,87</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-32,3; 43,4</t>
         </is>
       </c>
     </row>
@@ -1859,22 +2370,37 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
           <t>3,8</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>2,58</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>2,47</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
+      <c r="J36" s="2" t="inlineStr">
         <is>
           <t>1,41</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>3,13</t>
         </is>
       </c>
     </row>
@@ -1897,22 +2423,37 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
+          <t>1,11; 3,63</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
           <t>2,49; 5,19</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>1,12; 3,99</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 5,03</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>1,65; 3,36</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
+      <c r="J37" s="2" t="inlineStr">
         <is>
           <t>0,54; 2,23</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 4,08</t>
         </is>
       </c>
     </row>
@@ -1935,22 +2476,37 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
+          <t>84,38%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
           <t>49,94%</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>33,92%</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>46,26%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>45,8%</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
+      <c r="J38" s="2" t="inlineStr">
         <is>
           <t>26,23%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>58,03%</t>
         </is>
       </c>
     </row>
@@ -1973,22 +2529,37 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
+          <t>33,96; 134,14</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
           <t>30,21; 74,69</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>13,69; 57,96</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 72,07</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>28,41; 67,65</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr">
+      <c r="J39" s="2" t="inlineStr">
         <is>
           <t>9,0; 45,16</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>34,58; 82,55</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2574,12 @@
   <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/P1423-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,51</t>
+          <t>-0,53; 5,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,78</t>
+          <t>-0,67; 5,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,32</t>
+          <t>-3,35; 1,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 7,45</t>
+          <t>-3,18; 8,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 9,89</t>
+          <t>-1,88; 9,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -1,08</t>
+          <t>-9,54; -1,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,38</t>
+          <t>-0,74; 5,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 6,8</t>
+          <t>-0,26; 6,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -0,64</t>
+          <t>-5,59; -0,72</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 402,25</t>
+          <t>-20,45; 346,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 379,25</t>
+          <t>-26,63; 396,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,16; 118,53</t>
+          <t>-85,21; 91,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 92,58</t>
+          <t>-24,82; 103,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 132,09</t>
+          <t>-14,34; 131,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,74; -13,3</t>
+          <t>-69,91; -12,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 108,17</t>
+          <t>-10,33; 111,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 130,96</t>
+          <t>-5,72; 129,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,25; -9,14</t>
+          <t>-67,57; -12,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,09</t>
+          <t>-0,79; 4,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,68</t>
+          <t>-1,34; 3,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,91</t>
+          <t>0,63; 5,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 7,35</t>
+          <t>-0,57; 7,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,33</t>
+          <t>-3,22; 4,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,95</t>
+          <t>1,07; 8,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 5,06</t>
+          <t>0,05; 4,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,15</t>
+          <t>-1,31; 2,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,01</t>
+          <t>1,49; 6,17</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 253,07</t>
+          <t>-30,04; 265,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,46; 185,46</t>
+          <t>-40,9; 253,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 345,43</t>
+          <t>12,2; 393,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 99,13</t>
+          <t>-4,88; 97,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 58,85</t>
+          <t>-30,11; 59,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 113,03</t>
+          <t>9,21; 115,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 111,55</t>
+          <t>0,42; 96,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 67,02</t>
+          <t>-19,45; 64,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,81; 126,42</t>
+          <t>20,92; 129,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 7,3</t>
+          <t>1,52; 7,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,01</t>
+          <t>-1,78; 1,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 10,78</t>
+          <t>4,35; 11,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 9,19</t>
+          <t>0,43; 9,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 4,97</t>
+          <t>-2,54; 5,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 12,51</t>
+          <t>4,04; 12,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,96</t>
+          <t>1,83; 7,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,91</t>
+          <t>-1,45; 3,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,58</t>
+          <t>5,51; 10,89</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,04; 1882,29</t>
+          <t>28,43; 1864,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-96,23; 743,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,58; 3115,25</t>
+          <t>109,85; 3061,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,13; 189,5</t>
+          <t>3,57; 201,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 96,45</t>
+          <t>-33,05; 113,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,08; 266,52</t>
+          <t>41,85; 254,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>35,92; 241,87</t>
+          <t>33,84; 250,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 101,61</t>
+          <t>-29,95; 110,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>101,34; 356,09</t>
+          <t>99,25; 370,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,05</t>
+          <t>-1,86; 3,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,06</t>
+          <t>-1,66; 3,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,82</t>
+          <t>2,2; 9,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 13,15</t>
+          <t>5,26; 13,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,46</t>
+          <t>-0,94; 5,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 6,95</t>
+          <t>-0,6; 7,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,46</t>
+          <t>2,67; 7,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,59</t>
+          <t>-0,47; 3,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,2</t>
+          <t>1,92; 7,45</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-60,54; 349,07</t>
+          <t>-62,94; 345,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 310,0</t>
+          <t>-57,67; 294,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,81; 788,33</t>
+          <t>42,38; 918,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>79,17; 450,33</t>
+          <t>76,66; 429,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 172,08</t>
+          <t>-17,86; 172,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 208,59</t>
+          <t>-8,75; 210,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>53,83; 301,93</t>
+          <t>61,37; 297,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 150,68</t>
+          <t>-13,58; 141,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,93; 307,2</t>
+          <t>40,6; 291,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,35</t>
+          <t>-1,98; 5,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,91</t>
+          <t>-1,63; 6,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,84</t>
+          <t>-4,89; 0,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 16,97</t>
+          <t>3,28; 17,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 8,39</t>
+          <t>-4,06; 8,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 0,36</t>
+          <t>-10,4; 0,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,76; 9,67</t>
+          <t>1,71; 9,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 5,62</t>
+          <t>-1,41; 6,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 0,2</t>
+          <t>-5,82; 0,27</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 280,45</t>
+          <t>-44,45; 292,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 335,04</t>
+          <t>-37,4; 347,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-88,89; 64,59</t>
+          <t>-85,5; 79,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,84; 244,89</t>
+          <t>20,57; 235,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 115,62</t>
+          <t>-29,73; 122,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-71,68; 3,32</t>
+          <t>-71,28; 5,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,37; 186,57</t>
+          <t>19,29; 206,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,07; 110,85</t>
+          <t>-18,87; 112,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 6,18</t>
+          <t>-66,31; 3,49</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,95</t>
+          <t>1,91; 8,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,03; 4,28</t>
+          <t>0,01; 4,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,46; 12,84</t>
+          <t>6,28; 12,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,48; 12,45</t>
+          <t>2,64; 12,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,06; 12,01</t>
+          <t>2,44; 11,88</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,95; 13,28</t>
+          <t>4,96; 13,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,81</t>
+          <t>3,22; 8,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,39</t>
+          <t>1,91; 7,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,8; 12,02</t>
+          <t>6,81; 12,26</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>47,14; —</t>
+          <t>32,8; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-60,91; —</t>
+          <t>-63,27; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>280,63; —</t>
+          <t>288,77; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>26,59; 321,85</t>
+          <t>29,59; 315,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>22,95; 316,58</t>
+          <t>23,23; 330,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>56,56; 349,22</t>
+          <t>54,75; 357,24</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>66,36; 389,49</t>
+          <t>66,74; 401,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>42,28; 319,03</t>
+          <t>41,37; 328,54</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>148,59; 568,74</t>
+          <t>147,16; 564,64</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,54</t>
+          <t>-0,02; 4,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,99</t>
+          <t>-2,44; 1,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,2</t>
+          <t>1,84; 7,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 4,06</t>
+          <t>-2,11; 3,89</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,44</t>
+          <t>-2,53; 3,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 8,67</t>
+          <t>-2,87; 8,27</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,42</t>
+          <t>-0,24; 3,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,79</t>
+          <t>-1,9; 1,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,54</t>
+          <t>0,1; 6,86</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 198,71</t>
+          <t>-3,36; 211,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-63,45; 47,59</t>
+          <t>-63,53; 64,65</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>45,68; 334,32</t>
+          <t>44,59; 334,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 62,26</t>
+          <t>-22,11; 61,76</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 49,99</t>
+          <t>-26,84; 53,84</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-40,58; 118,94</t>
+          <t>-28,31; 109,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 72,32</t>
+          <t>-3,74; 76,55</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 38,24</t>
+          <t>-29,9; 35,36</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>8,27; 133,59</t>
+          <t>6,23; 141,04</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -0,8</t>
+          <t>-4,82; -0,58</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,49</t>
+          <t>-3,61; 0,83</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,31</t>
+          <t>-5,34; 0,28</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,75</t>
+          <t>-1,63; 3,7</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,15</t>
+          <t>1,09; 7,15</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,05</t>
+          <t>1,11; 6,85</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 0,9</t>
+          <t>-2,65; 1,01</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,34</t>
+          <t>-0,64; 3,27</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,66</t>
+          <t>-2,97; 2,61</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-70,1; -15,5</t>
+          <t>-69,31; -13,72</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 11,53</t>
+          <t>-53,81; 17,17</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-74,77; 4,37</t>
+          <t>-72,83; 5,22</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 60,79</t>
+          <t>-18,35; 63,26</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>9,6; 121,56</t>
+          <t>12,23; 116,99</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>13,67; 118,92</t>
+          <t>13,0; 116,38</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 16,48</t>
+          <t>-35,5; 17,62</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 57,87</t>
+          <t>-8,67; 56,82</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 43,4</t>
+          <t>-35,41; 42,39</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,01</t>
+          <t>0,21; 2,07</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,01</t>
+          <t>-0,66; 0,96</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,63</t>
+          <t>1,32; 3,7</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,19</t>
+          <t>2,29; 5,09</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,99</t>
+          <t>1,23; 3,95</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,03</t>
+          <t>1,32; 5,04</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,36</t>
+          <t>1,63; 3,34</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,23</t>
+          <t>0,53; 2,17</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,08</t>
+          <t>1,93; 4,09</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,43; 74,85</t>
+          <t>5,29; 74,33</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 38,12</t>
+          <t>-19,24; 36,47</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>33,96; 134,14</t>
+          <t>39,35; 137,32</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>30,21; 74,69</t>
+          <t>27,61; 73,02</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>13,69; 57,96</t>
+          <t>13,9; 56,6</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>18,72; 72,07</t>
+          <t>17,09; 69,94</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>28,41; 67,65</t>
+          <t>27,76; 65,9</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>9,0; 45,16</t>
+          <t>9,31; 44,22</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>34,58; 82,55</t>
+          <t>33,4; 81,69</t>
         </is>
       </c>
     </row>
